--- a/结果/main-table.xlsx
+++ b/结果/main-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12480"/>
+    <workbookView windowWidth="29400" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="main-table" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>model</t>
   </si>
@@ -61,15 +61,33 @@
     <t>overall</t>
   </si>
   <si>
+    <t>UA-cnt</t>
+  </si>
+  <si>
+    <t>ASR-cnt</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>ASR</t>
   </si>
   <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>BU</t>
   </si>
   <si>
+    <t>BU-true</t>
+  </si>
+  <si>
+    <t>BU-all</t>
+  </si>
+  <si>
     <t>qwen3-max</t>
   </si>
   <si>
@@ -109,6 +127,9 @@
     <t>DRIFT（NIPS-25）</t>
   </si>
   <si>
+    <t>在跑</t>
+  </si>
+  <si>
     <t>ours</t>
   </si>
   <si>
@@ -137,9 +158,6 @@
   </si>
   <si>
     <t>19.23%(5/26)0</t>
-  </si>
-  <si>
-    <t>5%(2/40)</t>
   </si>
   <si>
     <t>Gemini-2.5-pro</t>
@@ -155,7 +173,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,27 +200,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -549,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -573,21 +570,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -708,137 +690,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,6 +854,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -892,18 +877,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1430,29 +1403,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="14.7307692307692" customWidth="1"/>
     <col min="2" max="2" width="21.1442307692308" customWidth="1"/>
-    <col min="3" max="3" width="20.6730769230769" customWidth="1"/>
-    <col min="4" max="4" width="10.3076923076923"/>
-    <col min="5" max="5" width="12.5096153846154" customWidth="1"/>
-    <col min="6" max="6" width="12.8461538461538" customWidth="1"/>
-    <col min="7" max="7" width="13.5096153846154" customWidth="1"/>
-    <col min="8" max="8" width="14.1826923076923" customWidth="1"/>
-    <col min="9" max="9" width="14.1730769230769" customWidth="1"/>
-    <col min="10" max="10" width="13.3461538461538" customWidth="1"/>
-    <col min="12" max="12" width="11.5096153846154" customWidth="1"/>
-    <col min="13" max="13" width="12.6730769230769" customWidth="1"/>
+    <col min="3" max="6" width="20.6730769230769" customWidth="1"/>
+    <col min="7" max="7" width="10.3076923076923"/>
+    <col min="8" max="8" width="12.5096153846154" customWidth="1"/>
+    <col min="9" max="12" width="12.8461538461538" customWidth="1"/>
+    <col min="13" max="13" width="13.5096153846154" customWidth="1"/>
+    <col min="14" max="17" width="14.1826923076923" customWidth="1"/>
+    <col min="18" max="18" width="14.1730769230769" customWidth="1"/>
+    <col min="19" max="22" width="13.3461538461538" customWidth="1"/>
+    <col min="24" max="27" width="11.5096153846154" customWidth="1"/>
+    <col min="28" max="28" width="12.6730769230769" customWidth="1"/>
+    <col min="34" max="34" width="9.61538461538461"/>
+    <col min="36" max="39" width="12.9230769230769"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1472,46 +1447,90 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="2"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:41">
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="2"/>
+      <c r="S2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:41">
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1519,28 +1538,28 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>10</v>
@@ -1549,678 +1568,1142 @@
         <v>11</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="U3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="2"/>
+      <c r="V3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:41">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.1839</v>
       </c>
-      <c r="E4" s="3">
+      <c r="H4" s="3">
         <v>0.8851</v>
       </c>
-      <c r="F4" s="3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
         <v>0.462</v>
       </c>
-      <c r="G4" s="3">
+      <c r="M4" s="3">
         <v>0.712</v>
       </c>
-      <c r="H4" s="3">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
         <v>0.3966</v>
       </c>
-      <c r="I4" s="3">
+      <c r="R4" s="3">
         <v>0.6536</v>
       </c>
-      <c r="J4" s="3">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3">
         <v>0.1765</v>
       </c>
-      <c r="K4" s="3">
+      <c r="W4" s="3">
         <v>0.7537</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC4" s="3">
+        <f>D4+I4+N4+S4+X4</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3">
+        <f t="shared" ref="AD4:AD9" si="0">E4+J4+O4+T4+Y4</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3">
+        <f>F4+K4+P4+U4+Z4</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
         <v>0.2951</v>
       </c>
-      <c r="O4" s="3">
+      <c r="AG4" s="3">
         <v>0.7383</v>
       </c>
-      <c r="P4" s="3">
-        <v>0.5153</v>
-      </c>
-      <c r="Q4" s="6">
+      <c r="AH4" s="3" t="e">
+        <f>AJ4/AL4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI4" s="6">
         <v>0.4056</v>
       </c>
-      <c r="R4" s="3">
-        <v>0.8041</v>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3">
+        <f>AN4/AO4</f>
+        <v>0.795918367346939</v>
+      </c>
+      <c r="AN4">
+        <v>78</v>
+      </c>
+      <c r="AO4">
+        <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:41">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.1839</v>
       </c>
-      <c r="E5" s="3">
+      <c r="H5" s="3">
         <v>0.885</v>
       </c>
-      <c r="F5" s="3">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>0.7174</v>
       </c>
-      <c r="G5" s="3">
+      <c r="M5" s="3">
         <v>0.4022</v>
       </c>
-      <c r="H5" s="3">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3">
         <v>0.397</v>
       </c>
-      <c r="I5" s="3">
+      <c r="R5" s="3">
         <v>0.6683</v>
       </c>
-      <c r="J5" s="3">
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3">
         <v>0.1751</v>
       </c>
-      <c r="K5" s="3">
+      <c r="W5" s="3">
         <v>0.6226</v>
       </c>
-      <c r="L5" s="5">
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5">
         <v>0.1</v>
       </c>
-      <c r="M5" s="5">
+      <c r="AB5" s="5">
         <v>0.6</v>
       </c>
-      <c r="N5" s="3">
+      <c r="AC5" s="3">
+        <f t="shared" ref="AC4:AC19" si="1">D5+I5+N5+S5+X5</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <f>F5+K5+P5+U5+Z5</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3">
         <v>0.3143</v>
       </c>
-      <c r="O5" s="3">
+      <c r="AG5" s="3">
         <v>0.6338</v>
       </c>
-      <c r="P5" s="3">
+      <c r="AH5" s="3">
         <v>0.5943</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="AI5" s="3">
         <v>0.3541</v>
       </c>
-      <c r="R5" s="3">
-        <v>0.7835</v>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3">
+        <f>AN5/AO5</f>
+        <v>0.775510204081633</v>
+      </c>
+      <c r="AN5">
+        <v>76</v>
+      </c>
+      <c r="AO5">
+        <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:41">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.1034</v>
       </c>
-      <c r="E6" s="3">
+      <c r="H6" s="3">
         <v>0.9023</v>
       </c>
-      <c r="F6" s="3">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
         <v>0.237</v>
       </c>
-      <c r="G6" s="3">
+      <c r="M6" s="3">
         <v>0.6519</v>
       </c>
-      <c r="H6" s="3">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
         <v>0.2308</v>
       </c>
-      <c r="I6" s="3">
+      <c r="R6" s="3">
         <v>0.6713</v>
       </c>
-      <c r="J6" s="3">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3">
         <v>0.1577</v>
       </c>
-      <c r="K6" s="3">
+      <c r="W6" s="3">
         <v>0.0747</v>
       </c>
-      <c r="L6" s="4">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4">
         <v>0.0583</v>
       </c>
-      <c r="M6" s="4">
+      <c r="AB6" s="4">
         <v>0.325</v>
       </c>
-      <c r="N6" s="3">
+      <c r="AC6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <f t="shared" ref="AE6:AE19" si="2">F6+K6+P6+U6+Z6</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3">
         <v>0.1572</v>
       </c>
-      <c r="O6" s="3">
+      <c r="AG6" s="3">
         <v>0.4889</v>
       </c>
-      <c r="P6" s="3">
+      <c r="AH6" s="3">
         <v>0.2982</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="AI6" s="3">
         <v>0.0948</v>
       </c>
-      <c r="R6" s="3">
-        <v>0.4433</v>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3">
+        <f>AN6/AO6</f>
+        <v>0.438775510204082</v>
+      </c>
+      <c r="AN6">
+        <v>43</v>
+      </c>
+      <c r="AO6">
+        <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:41">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3">
         <v>0.0345</v>
       </c>
-      <c r="E7" s="3">
+      <c r="H7" s="3">
         <v>0.049</v>
       </c>
-      <c r="F7" s="3">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
         <v>0.0167</v>
       </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3">
         <v>0.0286</v>
       </c>
-      <c r="I7" s="3">
+      <c r="R7" s="3">
         <v>0.0286</v>
       </c>
-      <c r="J7" s="3">
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3">
         <v>0.0956</v>
       </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5">
         <v>0.06</v>
       </c>
-      <c r="M7" s="4">
+      <c r="AB7" s="4">
         <v>0.4333</v>
       </c>
-      <c r="N7" s="3">
+      <c r="AC7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3">
         <v>0.056</v>
       </c>
-      <c r="O7" s="3">
+      <c r="AG7" s="3">
         <v>0.1876</v>
       </c>
-      <c r="P7" s="3">
+      <c r="AH7" s="3">
         <v>0.0748</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="AI7" s="3">
         <v>0.0011</v>
       </c>
-      <c r="R7" s="3">
-        <v>0.4639</v>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3">
+        <f>AN7/AO7</f>
+        <v>0.459183673469388</v>
+      </c>
+      <c r="AN7">
+        <v>45</v>
+      </c>
+      <c r="AO7">
+        <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:41">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:41">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="3">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.1494</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>0.8793</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
         <v>0.5815</v>
       </c>
-      <c r="G9" s="3">
+      <c r="M9" s="3">
         <v>0.375</v>
       </c>
-      <c r="H9" s="3">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
         <v>0.3743</v>
       </c>
-      <c r="I9" s="3">
+      <c r="R9" s="3">
         <v>0.6145</v>
       </c>
-      <c r="J9" s="3">
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3">
         <v>0.1875</v>
       </c>
-      <c r="K9" s="3">
+      <c r="W9" s="3">
         <v>0.0074</v>
       </c>
-      <c r="L9" s="4">
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4">
         <v>0.0496</v>
       </c>
-      <c r="M9" s="4">
+      <c r="AB9" s="4">
         <v>0.1488</v>
       </c>
-      <c r="N9" s="3">
+      <c r="AC9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3">
         <v>0.2763</v>
       </c>
-      <c r="O9" s="3">
+      <c r="AG9" s="3">
         <v>0.3785</v>
       </c>
-      <c r="P9" s="3">
+      <c r="AH9" s="3">
         <v>0.3519</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="AI9" s="3">
         <v>0.0042</v>
       </c>
-      <c r="R9" s="3">
-        <v>0.7216</v>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3">
+        <f>AN9/AO9</f>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="AN9">
+        <v>70</v>
+      </c>
+      <c r="AO9">
+        <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:41">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3">
         <v>0.1092</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>0.6207</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
         <v>0.3424</v>
       </c>
-      <c r="G10" s="3">
+      <c r="M10" s="3">
         <v>0.2826</v>
       </c>
-      <c r="H10" s="3">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3">
         <v>0.2123</v>
       </c>
-      <c r="I10" s="3">
+      <c r="R10" s="3">
         <v>0.648</v>
       </c>
-      <c r="J10" s="3">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3">
         <v>0.1801</v>
       </c>
-      <c r="K10" s="3">
+      <c r="W10" s="3">
         <v>0.0625</v>
       </c>
-      <c r="L10" s="4">
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4">
         <v>0.124</v>
       </c>
-      <c r="M10" s="4">
+      <c r="AB10" s="4">
         <v>0.124</v>
       </c>
-      <c r="N10" s="3">
+      <c r="AC10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <f t="shared" ref="AD10:AD19" si="3">E10+J10+O10+T10+Y10</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
         <v>0.1972</v>
       </c>
-      <c r="O10" s="3">
+      <c r="AG10" s="3">
         <v>0.3294</v>
       </c>
-      <c r="P10" s="9">
+      <c r="AH10" s="9">
         <v>0.5895</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="AI10" s="10">
         <v>11.72</v>
       </c>
-      <c r="R10" s="3">
-        <v>0.7835</v>
-      </c>
-      <c r="S10" s="3"/>
+      <c r="AJ10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3">
+        <f>AN10/AO10</f>
+        <v>0.76530612244898</v>
+      </c>
+      <c r="AN10" s="11">
+        <v>75</v>
+      </c>
+      <c r="AO10">
+        <v>98</v>
+      </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:41">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="P11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
         <v>36</v>
       </c>
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <f>AN11/AO11</f>
+        <v>0.744897959183674</v>
+      </c>
+      <c r="AN11">
+        <v>73</v>
+      </c>
+      <c r="AO11">
+        <v>98</v>
+      </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="14">
+    <row r="12" spans="1:41">
+      <c r="A12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15">
         <v>0.1921</v>
       </c>
-      <c r="E12" s="14">
+      <c r="H12" s="15">
         <v>0.5364</v>
       </c>
-      <c r="F12" s="14">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15">
         <v>0.3152</v>
       </c>
-      <c r="G12" s="14">
+      <c r="M12" s="15">
         <v>0.6957</v>
       </c>
-      <c r="H12" s="14">
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15">
         <v>0.2626</v>
       </c>
-      <c r="I12" s="14">
+      <c r="R12" s="15">
         <v>0.5419</v>
       </c>
-      <c r="J12" s="14">
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15">
         <v>0.1728</v>
       </c>
-      <c r="K12" s="14">
+      <c r="W12" s="15">
         <v>0.5662</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="3">
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="3">
         <v>0.2881</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="AI12" s="3">
         <v>0.1809</v>
       </c>
-      <c r="R12" s="14">
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="15">
         <v>0.6598</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:41">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3">
         <v>0.1494</v>
       </c>
-      <c r="E13" s="3">
+      <c r="H13" s="3">
         <v>0.6207</v>
       </c>
-      <c r="F13" s="3">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
         <v>0.3073</v>
       </c>
-      <c r="G13" s="3">
+      <c r="M13" s="3">
         <v>0.7095</v>
       </c>
-      <c r="H13" s="3">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3">
         <v>0.2604</v>
       </c>
-      <c r="I13" s="3">
+      <c r="R13" s="3">
         <v>0.5089</v>
       </c>
-      <c r="J13" s="3">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3">
         <v>0.2674</v>
       </c>
-      <c r="K13" s="3">
+      <c r="W13" s="3">
         <v>0.5174</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="P13" s="3">
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="3">
         <v>0.2782</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="AI13" s="3">
         <v>0.098</v>
       </c>
-      <c r="R13" s="3">
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3">
         <v>0.7423</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:41">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3">
+        <v>25</v>
+      </c>
+      <c r="G14" s="3">
         <v>0.069</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>58.62</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
         <v>0.1586</v>
       </c>
-      <c r="G14" s="3">
+      <c r="M14" s="3">
         <v>0.4483</v>
       </c>
-      <c r="H14" s="3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3">
         <v>0.1801</v>
       </c>
-      <c r="I14" s="3">
+      <c r="R14" s="3">
         <v>0.4224</v>
       </c>
-      <c r="J14" s="3">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3">
         <v>0.152</v>
       </c>
-      <c r="K14" s="3">
+      <c r="W14" s="3">
         <v>0.096</v>
       </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="P14" s="3">
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="3">
         <v>0.1053</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="AI14" s="3">
         <v>0.0149</v>
       </c>
-      <c r="R14" s="3">
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3">
         <v>0.3505</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:41">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="P15">
+        <v>27</v>
+      </c>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
         <v>34.71</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="AI15" s="3">
         <v>0.0235</v>
       </c>
-      <c r="R15" s="4">
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4">
         <v>0.4948</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:41">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:41">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3">
         <v>0.1118</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>0.6335</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
         <v>0.2739</v>
       </c>
-      <c r="G17" s="3">
+      <c r="M17" s="3">
         <v>0.6369</v>
       </c>
-      <c r="H17" s="3">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3">
         <v>0.2123</v>
       </c>
-      <c r="I17" s="3">
+      <c r="R17" s="3">
         <v>0.4747</v>
       </c>
-      <c r="J17" s="3">
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3">
         <v>0.1635</v>
       </c>
-      <c r="K17" s="3">
+      <c r="W17" s="3">
         <v>0.0394</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="P17" s="3">
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="3">
         <v>0.1149</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="AI17" s="3">
         <v>0.0042</v>
       </c>
-      <c r="R17" s="3">
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3">
         <v>0.4433</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:41">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AM18">
+        <f>AN18/AO18</f>
+        <v>0.551020408163265</v>
+      </c>
+      <c r="AN18">
+        <v>54</v>
+      </c>
+      <c r="AO18">
+        <v>98</v>
+      </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:41">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
+    <row r="20" spans="1:41">
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
     </row>
-    <row r="21" spans="1:18">
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+    <row r="21" spans="1:41">
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="G1:AG1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A19"/>
     <mergeCell ref="B4:B6"/>
@@ -2229,8 +2712,8 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="AH1:AI2"/>
+    <mergeCell ref="AM1:AO2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
